--- a/RMM/preparation/template.xlsx
+++ b/RMM/preparation/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyeve/go/src/github.com/vitaliyyevenko/continuum-utils/RMM/preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B286BA8F-233E-3441-83E9-B5A1FD22758C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AAA03D-AB82-B44B-9731-118B26D11A93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="6" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="10" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
   </bookViews>
   <sheets>
     <sheet name="collection" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,18 @@
     <sheet name="memory" sheetId="5" r:id="rId5"/>
     <sheet name="networks" sheetId="7" r:id="rId6"/>
     <sheet name="os" sheetId="8" r:id="rId7"/>
+    <sheet name="processors" sheetId="9" r:id="rId8"/>
+    <sheet name="raidController" sheetId="10" r:id="rId9"/>
+    <sheet name="system" sheetId="11" r:id="rId10"/>
+    <sheet name="installedSoft" sheetId="12" r:id="rId11"/>
+    <sheet name="keyboard" sheetId="13" r:id="rId12"/>
+    <sheet name="mouse" sheetId="14" r:id="rId13"/>
+    <sheet name="monitor" sheetId="15" r:id="rId14"/>
+    <sheet name="phisicalDrive" sheetId="16" r:id="rId15"/>
+    <sheet name="user" sheetId="17" r:id="rId16"/>
+    <sheet name="service" sheetId="18" r:id="rId17"/>
+    <sheet name="share" sheetId="19" r:id="rId18"/>
+    <sheet name="license" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="466">
   <si>
     <t>CreateTimeUTC</t>
   </si>
@@ -561,9 +573,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>asset_memory</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -819,53 +828,626 @@
     <t>`json:"productKey,omitempty" cql:"product_key"`</t>
   </si>
   <si>
-    <t>BootVolume</t>
-  </si>
-  <si>
-    <t>`json:"bootVolume,omitempty" cql:"boot_volume"`</t>
-  </si>
-  <si>
-    <t>BootMode</t>
-  </si>
-  <si>
-    <t>`json:"bootMode,omitempty" cql:"boot_mode"`</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
     <t>`json:"userName,omitempty" cql:"user_name"`</t>
   </si>
   <si>
-    <t>VirMem</t>
-  </si>
-  <si>
-    <t>`json:"virMem,omitempty" cql:"vir_mem"`</t>
-  </si>
-  <si>
-    <t>BitKerExt</t>
-  </si>
-  <si>
-    <t>`json:"bitKerExt,omitempty" cql:"bit_ker_ext"`</t>
-  </si>
-  <si>
-    <t>BootDuration</t>
-  </si>
-  <si>
-    <t>`json:"bootDuration,omitempty" cql:"boot_duration"`</t>
-  </si>
-  <si>
     <t>KernelVersion</t>
   </si>
   <si>
     <t>`json:"kernelVersion,omitempty" cql:"kernel_version"`</t>
+  </si>
+  <si>
+    <t>asset_type</t>
+  </si>
+  <si>
+    <t>os_language</t>
+  </si>
+  <si>
+    <t>serialNumber</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>service_pack</t>
+  </si>
+  <si>
+    <t>os_installed_drive</t>
+  </si>
+  <si>
+    <t>build_number</t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>product_key</t>
+  </si>
+  <si>
+    <t>kernel_version</t>
+  </si>
+  <si>
+    <t>asset_processors</t>
+  </si>
+  <si>
+    <t>NumberOfProcessors</t>
+  </si>
+  <si>
+    <t>`json:"numberOfProcessors" cql:"number_of_processors"`</t>
+  </si>
+  <si>
+    <t>NumberOfCores</t>
+  </si>
+  <si>
+    <t>`json:"numberOfCores" cql:"number_of_cores"`</t>
+  </si>
+  <si>
+    <t>ClockSpeedMhz</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>`json:"clockSpeedMhz" cql:"clock_speed_mhz"`</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>`json:"family" cql:"family"`</t>
+  </si>
+  <si>
+    <t>ProcessorType</t>
+  </si>
+  <si>
+    <t>`json:"processorType,omitempty" cql:"processor_type"`</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>`json:"level" cql:"level"`</t>
+  </si>
+  <si>
+    <t>L2Cache</t>
+  </si>
+  <si>
+    <t>`json:"l2Cache,omitempty" cql:"l2_cache"`</t>
+  </si>
+  <si>
+    <t>L3Cache</t>
+  </si>
+  <si>
+    <t>`json:"l3Cache,omitempty" cql:"l3_cache"`</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>number_of_processors</t>
+  </si>
+  <si>
+    <t>number_of_cores</t>
+  </si>
+  <si>
+    <t>clock_speed_mhz</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>processor_type</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>l2_cache</t>
+  </si>
+  <si>
+    <t>l3_cache</t>
+  </si>
+  <si>
+    <t>asset_raid_controller</t>
+  </si>
+  <si>
+    <t>SoftwareRaid</t>
+  </si>
+  <si>
+    <t>`json:"softwareRaid,omitempty" cql:"software_raid"`</t>
+  </si>
+  <si>
+    <t>HardwareRaid</t>
+  </si>
+  <si>
+    <t>`json:"hardwareRaid,omitempty" cql:"hardware_raid"`</t>
+  </si>
+  <si>
+    <t>software_raid</t>
+  </si>
+  <si>
+    <t>hardware_raid</t>
+  </si>
+  <si>
+    <t>asset_system</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>`json:"timeZone,omitempty" cql:"time_zone"`</t>
+  </si>
+  <si>
+    <t>TimeZoneDescription</t>
+  </si>
+  <si>
+    <t>`json:"timeZoneDescription,omitempty" cql:"time_zone_description"`</t>
+  </si>
+  <si>
+    <t>SystemName</t>
+  </si>
+  <si>
+    <t>`json:"systemName" cql:"system_name"`</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>`json:"category,omitempty" cql:"category"`</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>`json:"domain,omitempty" cql:"domain"`</t>
+  </si>
+  <si>
+    <t>DomainRole</t>
+  </si>
+  <si>
+    <t>`json:"domainRole" cql:"domain_role"`</t>
+  </si>
+  <si>
+    <t>time_zone</t>
+  </si>
+  <si>
+    <t>time_zone_description</t>
+  </si>
+  <si>
+    <t>system_name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>domain_role</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>`json:"publisher,omitempty" cql:"publisher"`</t>
+  </si>
+  <si>
+    <t>LastAccessDateTime</t>
+  </si>
+  <si>
+    <t>`json:"lastAccessDateTime,omitempty" cql:"last_access_datetime"`</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>last_access_datetime</t>
+  </si>
+  <si>
+    <t>asset_keyboards</t>
+  </si>
+  <si>
+    <t>asset_installed_softwares</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>`json:"deviceID,omitempty" cql:"device_id"`</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>`json:"deviceId,omitempty" cql:"device_id"`</t>
+  </si>
+  <si>
+    <t>DeviceInterface</t>
+  </si>
+  <si>
+    <t>`json:"deviceInterface" cql:"device_interface"`</t>
+  </si>
+  <si>
+    <t>PointingType</t>
+  </si>
+  <si>
+    <t>`json:"pointingType" cql:"pointing_type"`</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>`json:"buttons" cql:"buttons"`</t>
+  </si>
+  <si>
+    <t>device_interface</t>
+  </si>
+  <si>
+    <t>pointing_type</t>
+  </si>
+  <si>
+    <t>buttons</t>
+  </si>
+  <si>
+    <t>asset_monitors</t>
+  </si>
+  <si>
+    <t>ScreenHeight</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>`json:"screenHeight,omitempty" cql:"screen_height"`</t>
+  </si>
+  <si>
+    <t>ScreenWidth</t>
+  </si>
+  <si>
+    <t>`json:"screenWidth,omitempty" cql:"screen_width"`</t>
+  </si>
+  <si>
+    <t>screen_height</t>
+  </si>
+  <si>
+    <t>screen_width</t>
+  </si>
+  <si>
+    <t>asset_memories</t>
+  </si>
+  <si>
+    <t>asset_mouses</t>
+  </si>
+  <si>
+    <t>asset_users</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>`json:"userid,omitempty" cql:"userid"`</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>`json:"username,omitempty" cql:"username"`</t>
+  </si>
+  <si>
+    <t>DomainName</t>
+  </si>
+  <si>
+    <t>`json:"domainName,omitempty" cql:"domain_name"`</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>`json:"userType,omitempty" cql:"user_type"`</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>`json:"accountType,omitempty" cql:"account_type"`</t>
+  </si>
+  <si>
+    <t>UserDisabled</t>
+  </si>
+  <si>
+    <t>`json:"userDisabled" cql:"user_disabled"`</t>
+  </si>
+  <si>
+    <t>UserLockout</t>
+  </si>
+  <si>
+    <t>`json:"userLockout" cql:"user_lockout"`</t>
+  </si>
+  <si>
+    <t>PasswordRequired</t>
+  </si>
+  <si>
+    <t>`json:"passwordRequired" cql:"password_required"`</t>
+  </si>
+  <si>
+    <t>PasswordChangeable</t>
+  </si>
+  <si>
+    <t>`json:"passwordChangeable" cql:"password_changeable"`</t>
+  </si>
+  <si>
+    <t>PasswordExpires</t>
+  </si>
+  <si>
+    <t>`json:"passwordExpires" cql:"password_expires"`</t>
+  </si>
+  <si>
+    <t>PasswordComplexityEnabled</t>
+  </si>
+  <si>
+    <t>`json:"passwordComplexityEnabled" cql:"password_complexity_enabled"`</t>
+  </si>
+  <si>
+    <t>RemoteDesktopAllowed</t>
+  </si>
+  <si>
+    <t>`json:"remoteDesktopAllowed" cql:"remote_desktop_allowed"`</t>
+  </si>
+  <si>
+    <t>LockoutThreshold</t>
+  </si>
+  <si>
+    <t>`json:"lockoutThreshold" cql:"lockout_threshold"`</t>
+  </si>
+  <si>
+    <t>LockoutDurationMins</t>
+  </si>
+  <si>
+    <t>`json:"lockoutDurationMins" cql:"lockout_duration_mins"`</t>
+  </si>
+  <si>
+    <t>LastLogonTimestamp</t>
+  </si>
+  <si>
+    <t>`json:"lastLogonTimestamp" cql:"lastlogon_timestamp"`</t>
+  </si>
+  <si>
+    <t>RemoteAccessAllowed</t>
+  </si>
+  <si>
+    <t>`json:"remoteAccessAllowed" cql:"remote_access_allowed"`</t>
+  </si>
+  <si>
+    <t>SystemRole</t>
+  </si>
+  <si>
+    <t>`json:"systemRole,omitempty" cql:"system_role"`</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>domain_name</t>
+  </si>
+  <si>
+    <t>user_type</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>user_disabled</t>
+  </si>
+  <si>
+    <t>user_lockout</t>
+  </si>
+  <si>
+    <t>password_required</t>
+  </si>
+  <si>
+    <t>password_changeable</t>
+  </si>
+  <si>
+    <t>password_expires</t>
+  </si>
+  <si>
+    <t>password_complexity_enabled</t>
+  </si>
+  <si>
+    <t>remote_desktop_allowed</t>
+  </si>
+  <si>
+    <t>lockout_threshold</t>
+  </si>
+  <si>
+    <t>lockout_duration_mins</t>
+  </si>
+  <si>
+    <t>last_logon_timestamp</t>
+  </si>
+  <si>
+    <t>remote_access_allowed</t>
+  </si>
+  <si>
+    <t>system_role</t>
+  </si>
+  <si>
+    <t>asset_services</t>
+  </si>
+  <si>
+    <t>`json:"serviceName,omitempty" cql:"service_name"`</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>`json:"displayName,omitempty" cql:"display_name"`</t>
+  </si>
+  <si>
+    <t>ExecutablePath</t>
+  </si>
+  <si>
+    <t>`json:"executablePath,omitempty" cql:"executable_path"`</t>
+  </si>
+  <si>
+    <t>StartupType</t>
+  </si>
+  <si>
+    <t>`json:"startupType,omitempty" cql:"startup_type"`</t>
+  </si>
+  <si>
+    <t>ServiceStatus</t>
+  </si>
+  <si>
+    <t>`json:"serviceStatus,omitempty" cql:"service_status"`</t>
+  </si>
+  <si>
+    <t>LogOnAs</t>
+  </si>
+  <si>
+    <t>`json:"logOnAs,omitempty" cql:"logon_as"`</t>
+  </si>
+  <si>
+    <t>StopEnableAction</t>
+  </si>
+  <si>
+    <t>`json:"stopEnableAction" cql:"stop_enable_action"`</t>
+  </si>
+  <si>
+    <t>DelayedAutoStart</t>
+  </si>
+  <si>
+    <t>`json:"delayedAutoStart" cql:"delayed_auto_start"`</t>
+  </si>
+  <si>
+    <t>Win32ExitCode</t>
+  </si>
+  <si>
+    <t>`json:"win32ExitCode" cql:"win32_exit_code"`</t>
+  </si>
+  <si>
+    <t>ServiceSpecificExitCode</t>
+  </si>
+  <si>
+    <t>`json:"serviceSpecificExitCode" cql:"service_specific_exit_code"`</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>executable_path</t>
+  </si>
+  <si>
+    <t>startup_type</t>
+  </si>
+  <si>
+    <t>service_status</t>
+  </si>
+  <si>
+    <t>logon_as</t>
+  </si>
+  <si>
+    <t>stop_enable_action</t>
+  </si>
+  <si>
+    <t>win32_exit_code</t>
+  </si>
+  <si>
+    <t>service_specific_exit_code</t>
+  </si>
+  <si>
+    <t>delayed_auto_start</t>
+  </si>
+  <si>
+    <t>asset_shares</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>`json:"caption,omitempty" cql:"caption"`</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>`json:"path,omitempty" cql:"path"`</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>`json:"access,omitempty" cql:"access"`</t>
+  </si>
+  <si>
+    <t>UserAccess</t>
+  </si>
+  <si>
+    <t>`json:"userAccess,omitempty" cql:"user_access"`</t>
+  </si>
+  <si>
+    <t>MountFrom</t>
+  </si>
+  <si>
+    <t>`json:"mountForm,omitempty" cql:"mount_form"`</t>
+  </si>
+  <si>
+    <t>AutoMount</t>
+  </si>
+  <si>
+    <t>`json:"autoMount,omitempty" cql:"auto_mount"`</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>user_access</t>
+  </si>
+  <si>
+    <t>mount_form</t>
+  </si>
+  <si>
+    <t>auto_mount</t>
+  </si>
+  <si>
+    <t>asset_software_licenses</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>`json:"productName,omitempty" cql:"product_name"`</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>installation_date</t>
+  </si>
+  <si>
+    <t>installed_software</t>
+  </si>
+  <si>
+    <t>asset_physical_drives</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -894,6 +1476,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -915,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -928,6 +1518,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,7 +1836,7 @@
   <dimension ref="C1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="153" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1844,7 @@
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1347,7 +1938,7 @@
         <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -1518,7 +2109,7 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
         <v>134</v>
@@ -1536,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
         <v>135</v>
@@ -1554,7 +2145,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
         <v>140</v>
@@ -1572,10 +2163,10 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>358</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -1590,10 +2181,10 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -1608,10 +2199,10 @@
         <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -1626,7 +2217,10 @@
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -1641,7 +2235,10 @@
         <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>302</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -1656,7 +2253,10 @@
         <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>309</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -1671,9 +2271,14 @@
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
@@ -1686,7 +2291,10 @@
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G26" t="s">
+        <v>335</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -1701,7 +2309,10 @@
         <v>65</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G27" t="s">
+        <v>359</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -1716,7 +2327,10 @@
         <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G28" t="s">
+        <v>350</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -1731,7 +2345,10 @@
         <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G29" t="s">
+        <v>465</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -1746,7 +2363,10 @@
         <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G30" t="s">
+        <v>360</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -1761,7 +2381,10 @@
         <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G31" t="s">
+        <v>411</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -1776,7 +2399,10 @@
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G32" t="s">
+        <v>440</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -1791,7 +2417,10 @@
         <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="G33" t="s">
+        <v>459</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -1806,7 +2435,7 @@
         <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" s="3"/>
     </row>
@@ -1821,7 +2450,7 @@
         <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H35" s="3"/>
     </row>
@@ -1836,12 +2465,2544 @@
         <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D907F18-F4F7-5448-BE46-2C0584995BE0}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="159" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>326</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D5ADAF-C4EB-1F42-86AF-D144DDF4AE7B}">
+  <dimension ref="C1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56420592-B68F-5547-BCEA-A4712A0094FC}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5820E221-7304-5A41-B797-DF76E0291715}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA11509-D8D5-3A41-954B-6949452CA707}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231CFD7B-A889-9F40-917B-8763457A624A}">
+  <dimension ref="C1:I26"/>
+  <sheetViews>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9053598F-1BE7-2742-BD54-008F1903071E}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>397</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G12" t="s">
+        <v>404</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" t="s">
+        <v>405</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" t="s">
+        <v>406</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>408</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" t="s">
+        <v>409</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>410</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EB7017-5F9A-EA42-B4B4-5A2B7595FC34}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>433</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>434</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" t="s">
+        <v>438</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC19EE9E-741F-964B-B9DF-BCB51CCF8212}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="182" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>454</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>455</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2184989-160B-FC4D-B7F9-59B0DCE62D06}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2395,7 +5556,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C14" sqref="C14:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2569,7 +5730,7 @@
         <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
         <v>165</v>
@@ -2587,7 +5748,7 @@
         <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G11" t="s">
         <v>166</v>
@@ -2790,7 +5951,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:XFD1048576"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2849,7 +6010,7 @@
         <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>152</v>
@@ -3035,19 +6196,19 @@
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>184</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>185</v>
-      </c>
       <c r="F2" t="s">
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3071,307 +6232,307 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
         <v>186</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>187</v>
       </c>
-      <c r="E4" t="s">
-        <v>188</v>
-      </c>
       <c r="F4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" t="s">
         <v>225</v>
-      </c>
-      <c r="G4" t="s">
-        <v>226</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>189</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
         <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" t="s">
         <v>197</v>
       </c>
-      <c r="D9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>199</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>200</v>
       </c>
       <c r="F10" t="s">
         <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
         <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
         <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>204</v>
       </c>
       <c r="F12" t="s">
         <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" t="s">
         <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>207</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>208</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
         <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
         <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>211</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>212</v>
       </c>
       <c r="F16" t="s">
         <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" t="s">
         <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>215</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>216</v>
-      </c>
       <c r="F18" t="s">
         <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>217</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>218</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
         <v>219</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>220</v>
       </c>
       <c r="F20" t="s">
         <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -3395,37 +6556,37 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" t="s">
         <v>159</v>
       </c>
       <c r="G23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -3504,10 +6665,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0126CE2F-38C6-4A44-9107-F6E46C255419}">
-  <dimension ref="C1:I40"/>
+  <dimension ref="C1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection activeCell="E18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3533,7 +6694,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" t="s">
         <v>107</v>
@@ -3556,20 +6717,26 @@
       <c r="F3" t="s">
         <v>107</v>
       </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>246</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
-      </c>
       <c r="F4" t="s">
         <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>266</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -3586,6 +6753,9 @@
       <c r="F5" t="s">
         <v>107</v>
       </c>
+      <c r="G5" t="s">
+        <v>267</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
@@ -3596,10 +6766,13 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
         <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>130</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -3611,10 +6784,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
         <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -3626,206 +6802,166 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>100</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>250</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>251</v>
-      </c>
       <c r="F9" t="s">
         <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>268</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>252</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>253</v>
-      </c>
       <c r="F10" t="s">
         <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>269</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>254</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>255</v>
-      </c>
       <c r="F11" t="s">
         <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>270</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>256</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>257</v>
-      </c>
       <c r="F12" t="s">
         <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>271</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>258</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>259</v>
-      </c>
       <c r="F13" t="s">
         <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>272</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>260</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>261</v>
-      </c>
       <c r="F14" t="s">
         <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>273</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="G15" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" t="s">
-        <v>107</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" t="s">
-        <v>107</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>269</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>271</v>
-      </c>
-      <c r="F19" t="s">
-        <v>107</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>275</v>
-      </c>
-      <c r="F21" t="s">
-        <v>107</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
@@ -3878,32 +7014,509 @@
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="1"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="1"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="1"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C39" s="1"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AD8118-37CE-FF47-BDA4-220486026C24}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="E20" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70325B02-6C01-C745-B85B-7A5F8F10EF19}">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/RMM/preparation/template.xlsx
+++ b/RMM/preparation/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyeve/go/src/github.com/vitaliyyevenko/continuum-utils/RMM/preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AAA03D-AB82-B44B-9731-118B26D11A93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB6AE6-FEF2-AF42-9BAC-1FE73A434279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="10" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
   </bookViews>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA9F136-577F-A144-A173-1BD3C0D186C5}">
   <dimension ref="C1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="153" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A3" zoomScale="153" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2483,7 +2483,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2761,7 +2761,7 @@
   <dimension ref="C1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3177,7 +3177,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3413,7 +3413,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3635,7 +3635,7 @@
   <dimension ref="C1:I26"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3685,7 +3685,7 @@
         <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>294</v>
+        <v>166</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -3861,7 +3861,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4251,7 +4251,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5556,7 +5556,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5951,7 +5951,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6168,6 +6168,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6175,8 +6176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C471DD69-5BE9-1E42-BBBB-1BE061F10B71}">
   <dimension ref="C1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:I32"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6668,7 +6669,7 @@
   <dimension ref="C1:I34"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:XFD1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7026,7 +7027,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/RMM/preparation/template.xlsx
+++ b/RMM/preparation/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyeve/go/src/github.com/vitaliyyevenko/continuum-utils/RMM/preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EB6AE6-FEF2-AF42-9BAC-1FE73A434279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D705C724-A5C7-7E4F-BEA6-499DC83AE8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="10" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="18" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
   </bookViews>
   <sheets>
     <sheet name="collection" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="465">
   <si>
     <t>CreateTimeUTC</t>
   </si>
@@ -844,9 +844,6 @@
   </si>
   <si>
     <t>os_language</t>
-  </si>
-  <si>
-    <t>serialNumber</t>
   </si>
   <si>
     <t>arch</t>
@@ -1835,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA9F136-577F-A144-A173-1BD3C0D186C5}">
   <dimension ref="C1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="153" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A7" zoomScale="153" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2163,7 @@
         <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -2220,7 +2217,7 @@
         <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -2238,7 +2235,7 @@
         <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -2256,7 +2253,7 @@
         <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -2274,10 +2271,10 @@
         <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
@@ -2294,7 +2291,7 @@
         <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -2312,7 +2309,7 @@
         <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -2330,7 +2327,7 @@
         <v>177</v>
       </c>
       <c r="G28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -2348,7 +2345,7 @@
         <v>177</v>
       </c>
       <c r="G29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -2366,7 +2363,7 @@
         <v>177</v>
       </c>
       <c r="G30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H30" s="3"/>
     </row>
@@ -2384,7 +2381,7 @@
         <v>177</v>
       </c>
       <c r="G31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H31" s="3"/>
     </row>
@@ -2402,7 +2399,7 @@
         <v>177</v>
       </c>
       <c r="G32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H32" s="3"/>
     </row>
@@ -2420,7 +2417,7 @@
         <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H33" s="3"/>
     </row>
@@ -2483,7 +2480,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2539,37 +2536,37 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>310</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>311</v>
-      </c>
       <c r="F4" t="s">
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>312</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>313</v>
-      </c>
       <c r="F5" t="s">
         <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -2593,73 +2590,73 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>314</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>315</v>
-      </c>
       <c r="F7" t="s">
         <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>316</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>317</v>
-      </c>
       <c r="F8" t="s">
         <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>318</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>319</v>
-      </c>
       <c r="F9" t="s">
         <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" t="s">
         <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F10" t="s">
         <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -2760,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D5ADAF-C4EB-1F42-86AF-D144DDF4AE7B}">
   <dimension ref="C1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2801,19 +2798,19 @@
     </row>
     <row r="3" spans="3:8" ht="21" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>328</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>329</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -2854,7 +2851,7 @@
         <v>132</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
@@ -2871,25 +2868,25 @@
         <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F7" t="s">
         <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -2983,7 +2980,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3003,19 +3000,19 @@
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>337</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
         <v>338</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>339</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3177,7 +3174,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3233,73 +3230,73 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F4" t="s">
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
         <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s">
         <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
         <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
         <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
         <v>176</v>
       </c>
       <c r="G7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -3413,7 +3410,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="163" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3451,19 +3448,19 @@
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>337</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
         <v>338</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>339</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -3487,37 +3484,37 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" t="s">
         <v>351</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>352</v>
-      </c>
-      <c r="E5" t="s">
-        <v>353</v>
       </c>
       <c r="F5" t="s">
         <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" t="s">
         <v>354</v>
-      </c>
-      <c r="D6" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" t="s">
-        <v>355</v>
       </c>
       <c r="F6" t="s">
         <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -3635,7 +3632,7 @@
   <dimension ref="C1:I26"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3667,7 +3664,7 @@
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3861,7 +3858,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3881,307 +3878,307 @@
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>361</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>362</v>
-      </c>
       <c r="F2" t="s">
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>363</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>364</v>
-      </c>
       <c r="F3" t="s">
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>365</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>366</v>
-      </c>
       <c r="F4" t="s">
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>367</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>368</v>
-      </c>
       <c r="F5" t="s">
         <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>369</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>370</v>
-      </c>
       <c r="F6" t="s">
         <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
         <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F7" t="s">
         <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D8" t="s">
         <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F8" t="s">
         <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D9" t="s">
         <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F9" t="s">
         <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
         <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
         <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
         <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F11" t="s">
         <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
         <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
         <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D13" t="s">
         <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
         <v>224</v>
       </c>
       <c r="G13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" t="s">
         <v>385</v>
-      </c>
-      <c r="D14" t="s">
-        <v>352</v>
-      </c>
-      <c r="E14" t="s">
-        <v>386</v>
       </c>
       <c r="F14" t="s">
         <v>176</v>
       </c>
       <c r="G14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D15" t="s">
+        <v>351</v>
+      </c>
+      <c r="E15" t="s">
         <v>387</v>
-      </c>
-      <c r="D15" t="s">
-        <v>352</v>
-      </c>
-      <c r="E15" t="s">
-        <v>388</v>
       </c>
       <c r="F15" t="s">
         <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" t="s">
         <v>389</v>
-      </c>
-      <c r="D16" t="s">
-        <v>352</v>
-      </c>
-      <c r="E16" t="s">
-        <v>390</v>
       </c>
       <c r="F16" t="s">
         <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D17" t="s">
         <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F17" t="s">
         <v>224</v>
       </c>
       <c r="G17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>393</v>
       </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>394</v>
-      </c>
       <c r="F18" t="s">
         <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -4251,7 +4248,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4277,7 +4274,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F2" t="s">
         <v>107</v>
@@ -4289,163 +4286,163 @@
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>413</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>414</v>
-      </c>
       <c r="F3" t="s">
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>415</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>416</v>
-      </c>
       <c r="F4" t="s">
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>417</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>418</v>
-      </c>
       <c r="F5" t="s">
         <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>419</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>420</v>
-      </c>
       <c r="F6" t="s">
         <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>421</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>422</v>
-      </c>
       <c r="F7" t="s">
         <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D8" t="s">
         <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F8" t="s">
         <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D9" t="s">
         <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F9" t="s">
         <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" t="s">
         <v>427</v>
-      </c>
-      <c r="D10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E10" t="s">
-        <v>428</v>
       </c>
       <c r="F10" t="s">
         <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" t="s">
         <v>429</v>
-      </c>
-      <c r="D11" t="s">
-        <v>352</v>
-      </c>
-      <c r="E11" t="s">
-        <v>430</v>
       </c>
       <c r="F11" t="s">
         <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -4581,19 +4578,19 @@
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>441</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>442</v>
-      </c>
       <c r="F3" t="s">
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4617,55 +4614,55 @@
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>443</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>444</v>
-      </c>
       <c r="F5" t="s">
         <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>445</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>446</v>
-      </c>
       <c r="F6" t="s">
         <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D7" t="s">
         <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F7" t="s">
         <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -4689,37 +4686,37 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>449</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>450</v>
-      </c>
       <c r="F9" t="s">
         <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>451</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>452</v>
-      </c>
       <c r="F10" t="s">
         <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -4820,7 +4817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2184989-160B-FC4D-B7F9-59B0DCE62D06}">
   <dimension ref="C1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -4841,19 +4838,19 @@
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>460</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
         <v>461</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>462</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -4871,7 +4868,7 @@
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H3" s="3"/>
     </row>
@@ -4889,7 +4886,7 @@
         <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -5015,7 +5012,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5302,7 +5299,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5556,7 +5553,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5951,7 +5948,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6177,7 +6174,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6669,7 +6666,7 @@
   <dimension ref="C1:I34"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6755,7 +6752,7 @@
         <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -6827,7 +6824,7 @@
         <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -6845,7 +6842,7 @@
         <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -6863,7 +6860,7 @@
         <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -6881,7 +6878,7 @@
         <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -6899,7 +6896,7 @@
         <v>107</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -6917,7 +6914,7 @@
         <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -6935,7 +6932,7 @@
         <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>133</v>
@@ -7027,7 +7024,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7065,73 +7062,73 @@
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
         <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
         <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
         <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
         <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" t="s">
         <v>280</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>281</v>
       </c>
-      <c r="E5" t="s">
-        <v>282</v>
-      </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
         <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" t="s">
         <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -7155,19 +7152,19 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>285</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>286</v>
-      </c>
       <c r="F8" t="s">
         <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -7191,55 +7188,55 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
         <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
         <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>289</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>290</v>
-      </c>
       <c r="F11" t="s">
         <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>291</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>292</v>
-      </c>
       <c r="F12" t="s">
         <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -7333,7 +7330,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7353,37 +7350,37 @@
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>303</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>304</v>
-      </c>
       <c r="F2" t="s">
         <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>305</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>306</v>
-      </c>
       <c r="F3" t="s">
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H3" s="3"/>
     </row>

--- a/RMM/preparation/template.xlsx
+++ b/RMM/preparation/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyeve/go/src/github.com/vitaliyyevenko/continuum-utils/RMM/preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D705C724-A5C7-7E4F-BEA6-499DC83AE8BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B67DCA-3B96-BF44-82DE-00D925F98B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="18" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="15" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
   </bookViews>
   <sheets>
     <sheet name="collection" sheetId="1" r:id="rId1"/>
@@ -3857,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9053598F-1BE7-2742-BD54-008F1903071E}">
   <dimension ref="C1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4103,7 +4103,7 @@
         <v>385</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
         <v>405</v>
@@ -4121,7 +4121,7 @@
         <v>387</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
         <v>406</v>
@@ -4248,7 +4248,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4421,7 +4421,7 @@
         <v>427</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
         <v>436</v>
@@ -4439,7 +4439,7 @@
         <v>429</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
         <v>437</v>
@@ -4817,7 +4817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2184989-160B-FC4D-B7F9-59B0DCE62D06}">
   <dimension ref="C1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+    <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/RMM/preparation/template.xlsx
+++ b/RMM/preparation/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyeve/go/src/github.com/vitaliyyevenko/continuum-utils/RMM/preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B67DCA-3B96-BF44-82DE-00D925F98B6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A8C976-AA2B-514D-B688-6CEE828FD4F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="15" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="10" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
   </bookViews>
   <sheets>
     <sheet name="collection" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="471">
   <si>
     <t>CreateTimeUTC</t>
   </si>
@@ -1438,6 +1438,24 @@
   </si>
   <si>
     <t>asset_physical_drives</t>
+  </si>
+  <si>
+    <t>OsServicePack</t>
+  </si>
+  <si>
+    <t>`json:"os_service_pack,omitempty"`</t>
+  </si>
+  <si>
+    <t>os_service_pack</t>
+  </si>
+  <si>
+    <t>NameVersion</t>
+  </si>
+  <si>
+    <t>`json:"name_version,omitempty"`</t>
+  </si>
+  <si>
+    <t>name_version</t>
   </si>
 </sst>
 </file>
@@ -1830,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA9F136-577F-A144-A173-1BD3C0D186C5}">
-  <dimension ref="C1:H37"/>
+  <dimension ref="C1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="153" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A9" zoomScale="153" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2205,246 +2223,251 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>466</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>467</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
         <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
         <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>335</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>463</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
         <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>334</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
         <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
         <v>177</v>
       </c>
       <c r="G28" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F29" t="s">
         <v>177</v>
       </c>
       <c r="G29" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F30" t="s">
         <v>177</v>
       </c>
       <c r="G30" t="s">
-        <v>359</v>
+        <v>464</v>
       </c>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
         <v>177</v>
       </c>
       <c r="G31" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
         <v>177</v>
       </c>
       <c r="G32" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
         <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>177</v>
       </c>
+      <c r="G34" t="s">
+        <v>458</v>
+      </c>
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -2453,13 +2476,13 @@
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
         <v>177</v>
@@ -2467,7 +2490,22 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2480,7 +2518,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2757,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D5ADAF-C4EB-1F42-86AF-D144DDF4AE7B}">
   <dimension ref="C1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2895,8 +2933,24 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>470</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
@@ -3857,7 +3911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9053598F-1BE7-2742-BD54-008F1903071E}">
   <dimension ref="C1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+    <sheetView zoomScale="139" workbookViewId="0">
       <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
@@ -5012,7 +5066,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="172" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5299,7 +5353,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5552,8 +5606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7D1B5-F2EF-C347-B763-30F558B6B150}">
   <dimension ref="C1:I40"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A3" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5948,7 +6002,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6174,7 +6228,7 @@
   <dimension ref="C1:I40"/>
   <sheetViews>
     <sheetView zoomScale="137" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6666,7 +6720,7 @@
   <dimension ref="C1:I34"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7024,7 +7078,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7330,7 +7384,7 @@
   <dimension ref="C1:I32"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/RMM/preparation/template.xlsx
+++ b/RMM/preparation/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyeve/go/src/github.com/vitaliyyevenko/continuum-utils/RMM/preparation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A8C976-AA2B-514D-B688-6CEE828FD4F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E2C85E-C1AE-D54D-95A4-F041B54C5890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" activeTab="10" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="19600" xr2:uid="{EA563D69-8FF1-624C-9154-9E9F7A221548}"/>
   </bookViews>
   <sheets>
     <sheet name="collection" sheetId="1" r:id="rId1"/>
@@ -1850,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA9F136-577F-A144-A173-1BD3C0D186C5}">
   <dimension ref="C1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="153" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1915,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
         <v>97</v>
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
         <v>265</v>
@@ -2795,7 +2795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D5ADAF-C4EB-1F42-86AF-D144DDF4AE7B}">
   <dimension ref="C1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
